--- a/MWS/Application/VariousDocumentOut/Doc/Excel/11-変更届.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/11-変更届.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091E0F6-7E36-4C1E-A90A-782E812CB3ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EF194-E5A1-4EA2-BED1-7F57910A4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,10 +630,6 @@
 ｲｵﾝﾀｳﾝ郡山内</t>
   </si>
   <si>
-    <t>作成日　　2021 年 02 月 26 日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あおぞら歯科医院</t>
   </si>
   <si>
@@ -661,6 +657,10 @@
   </si>
   <si>
     <t>ｱｵｿﾞﾗｼｶｲｲﾝ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日　　2021 年 06 月 11 日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1115,21 +1115,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,9 +1485,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,7 +1571,19 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>〒160-0022</a:t>
+            <a:t>〒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>277-0871</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -1636,7 +1648,19 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KOIL TERRACE 5F</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1700,14 +1724,114 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>東京都新宿区新宿</a:t>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>千葉県柏市若柴</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>1-8-5</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>226</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>番地</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>44</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中央</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>141</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>街区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1772,11 +1896,19 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ＦＡＸ</a:t>
+            <a:t>ＦＡＸ </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>03-3350-1870</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>04-7130-9002</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -3738,7 +3870,9 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3747,7 +3881,7 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
       <c r="S1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.15">
@@ -3807,19 +3941,19 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="12" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
@@ -3886,7 +4020,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3911,35 +4045,35 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="21"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
@@ -3948,7 +4082,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3973,973 +4107,973 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B20" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="20"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="30" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="49"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="43">
         <v>2</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="48"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="51"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="42">
-        <v>2</v>
-      </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
     </row>
     <row r="29" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="49"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="51"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="48"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="51"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="52"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="63"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="64"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
     </row>
     <row r="36" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
     </row>
     <row r="37" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="72" t="s">
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="75"/>
     </row>
     <row r="39" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="77"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
+      <c r="Z39" s="78"/>
     </row>
     <row r="40" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="85" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="82" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="U40" s="83"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="81"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="82"/>
     </row>
     <row r="41" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="84" t="s">
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="U41" s="83"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="81"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="81"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="81"/>
+      <c r="Z41" s="82"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="52" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
     </row>
     <row r="47" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70"/>
-      <c r="Z49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="71" t="s">
+      <c r="M52" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -5094,77 +5228,77 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42" t="s">
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="103"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
@@ -5198,35 +5332,35 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="21"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
@@ -5260,530 +5394,530 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="36" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="42" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42" t="s">
+      <c r="T21" s="43"/>
+      <c r="U21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="42" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42" t="s">
+      <c r="T23" s="43"/>
+      <c r="U23" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="46" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="49"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="51"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="52"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="52" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="42">
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="43">
         <v>4</v>
       </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="46" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="49"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="51"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="52"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="48"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="49"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="93"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="94"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="51"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="52"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
@@ -5815,213 +5949,213 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="94" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="94"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="51"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="52"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="Z41" s="96"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="98"/>
+      <c r="T42" s="98"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="98"/>
+      <c r="W42" s="98"/>
+      <c r="X42" s="98"/>
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="98"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="98"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="98"/>
+      <c r="V43" s="98"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="71" t="s">
+      <c r="M46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6097,74 +6231,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6221,624 +6355,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42" t="s">
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="103"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="115" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="118"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="20"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="115" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="118"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="29"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="20"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="21"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="115" t="s">
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="118"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="20"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="21"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="49"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="93"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="94"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="93"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="94"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="51"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="52"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131" t="s">
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="71" t="s">
+      <c r="M50" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
